--- a/RegressionData.xlsx
+++ b/RegressionData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://valoremconsulting1com-my.sharepoint.com/personal/mmccoy_valorem_com/Documents/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://valoremconsulting1com-my.sharepoint.com/personal/mmccoy_valorem_com/Documents/Desktop/LInear-Regression-Python-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9771ACDB-1A79-4172-82CE-31FD92B30580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{9771ACDB-1A79-4172-82CE-31FD92B30580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F140214-5D82-458D-9C7A-3B5BF1458358}"/>
   <bookViews>
-    <workbookView xWindow="-3450" yWindow="4062" windowWidth="16584" windowHeight="9444" xr2:uid="{A8DC3AFB-7229-4747-B8C4-BE697C792A5D}"/>
+    <workbookView xWindow="1272" yWindow="-96" windowWidth="21864" windowHeight="13152" xr2:uid="{A8DC3AFB-7229-4747-B8C4-BE697C792A5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Projected_Revenute</t>
+    <t>Actual_Revenue</t>
   </si>
   <si>
-    <t>Actual_Revenue</t>
+    <t>Projected_Revenue</t>
   </si>
 </sst>
 </file>
@@ -400,9 +400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD81362-59D4-4ABE-A8BB-57A355C4ECC9}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -412,10 +410,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
